--- a/datasets/SP_bins.xlsx
+++ b/datasets/SP_bins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,257 +434,206 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AÑO</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Amarrillos</t>
+          <t>Blue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Azules</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>2005</v>
+        <v>268686</v>
       </c>
       <c r="C2" t="n">
-        <v>268686</v>
-      </c>
-      <c r="D2" t="n">
         <v>115427</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>2006</v>
+        <v>285152</v>
       </c>
       <c r="C3" t="n">
-        <v>285152</v>
-      </c>
-      <c r="D3" t="n">
         <v>128000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>2007</v>
+        <v>296612</v>
       </c>
       <c r="C4" t="n">
-        <v>296612</v>
-      </c>
-      <c r="D4" t="n">
         <v>140774</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>2008</v>
+        <v>311485</v>
       </c>
       <c r="C5" t="n">
-        <v>311485</v>
-      </c>
-      <c r="D5" t="n">
         <v>152001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>2009</v>
+        <v>324401</v>
       </c>
       <c r="C6" t="n">
-        <v>324401</v>
-      </c>
-      <c r="D6" t="n">
         <v>162848</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>2010</v>
+        <v>333779</v>
       </c>
       <c r="C7" t="n">
-        <v>333779</v>
-      </c>
-      <c r="D7" t="n">
         <v>172661</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>2011</v>
+        <v>340232</v>
       </c>
       <c r="C8" t="n">
-        <v>340232</v>
-      </c>
-      <c r="D8" t="n">
         <v>180377</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>2012</v>
+        <v>350427</v>
       </c>
       <c r="C9" t="n">
-        <v>350427</v>
-      </c>
-      <c r="D9" t="n">
         <v>185697</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>352563</v>
       </c>
       <c r="C10" t="n">
-        <v>352563</v>
-      </c>
-      <c r="D10" t="n">
         <v>190564</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>2014</v>
+        <v>357486</v>
       </c>
       <c r="C11" t="n">
-        <v>357486</v>
-      </c>
-      <c r="D11" t="n">
         <v>195629</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>2015</v>
+        <v>366339</v>
       </c>
       <c r="C12" t="n">
-        <v>366339</v>
-      </c>
-      <c r="D12" t="n">
         <v>200618</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>2016</v>
+        <v>373272</v>
       </c>
       <c r="C13" t="n">
-        <v>373272</v>
-      </c>
-      <c r="D13" t="n">
         <v>204959</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>2017</v>
+        <v>378272</v>
       </c>
       <c r="C14" t="n">
-        <v>378272</v>
-      </c>
-      <c r="D14" t="n">
         <v>212852</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>2018</v>
+        <v>383974</v>
       </c>
       <c r="C15" t="n">
-        <v>383974</v>
-      </c>
-      <c r="D15" t="n">
         <v>217170</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>2019</v>
+        <v>390611</v>
       </c>
       <c r="C16" t="n">
-        <v>390611</v>
-      </c>
-      <c r="D16" t="n">
         <v>224945</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>2020</v>
+        <v>388174</v>
       </c>
       <c r="C17" t="n">
-        <v>388174</v>
-      </c>
-      <c r="D17" t="n">
         <v>229594</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>2021</v>
+        <v>383508</v>
       </c>
       <c r="C18" t="n">
-        <v>383508</v>
-      </c>
-      <c r="D18" t="n">
         <v>240297</v>
       </c>
     </row>
